--- a/Zettel11/11-MovieManager-Systemtests.xlsx
+++ b/Zettel11/11-MovieManager-Systemtests.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="63">
   <si>
     <t xml:space="preserve">Number</t>
   </si>
@@ -73,21 +73,45 @@
     <t xml:space="preserve">W1: Movie</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Select „Sort by“ 
-2. Select „Borrowed“</t>
+    <t xml:space="preserve">Change Sorting to list Movies in Borrowed order</t>
   </si>
   <si>
     <t xml:space="preserve">W1: Movie: The Movies are Sorted according to first movie borrowed to last movie borrowed, followed by all movies not borrowed yet. </t>
   </si>
   <si>
+    <t xml:space="preserve">None</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nothing changed</t>
+  </si>
+  <si>
     <t xml:space="preserve">Concrete</t>
   </si>
   <si>
-    <t xml:space="preserve">Movie m = „Star Wars“
-m.istVerliehen = false</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W1: Rightklick on a Movie </t>
+    <t xml:space="preserve">Movie m1 = „Star Wars“
+Movie m2 = „23“
+Movie m3 = „Hackers“
+m1.istVerliehen = false
+M2.istVerliehen = false
+m3.istVerliehen = false</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Order is:
+23
+Hackers
+Star Wars
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Right Click a Movie
+2. Select „Sort by“ 
+3. Select „Borrowed“</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As no Movie is borrowed the order remains Alphabetical:
+23
+Hackers
+Star Wars</t>
   </si>
   <si>
     <t xml:space="preserve">Test Sort by mit einem verliehenen Film</t>
@@ -96,13 +120,47 @@
     <t xml:space="preserve">Ein Film ist verliehen</t>
   </si>
   <si>
-    <t xml:space="preserve">Movie m = „Star Wars“  m.istVerliehen = true</t>
+    <t xml:space="preserve">Order changed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Movie m1 = „Star Wars“
+Movie m2 = „23“
+Movie m3 = „Hackers“
+m1.istVerliehen = true
+M2.istVerliehen = false
+m3.istVerliehen = false</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Star Wars is borrowed now so the order will be:
+Star Wars
+23
+Hackers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Order now is:
+Star Wars
+23
+Hackers</t>
   </si>
   <si>
     <t xml:space="preserve">Test Sort by mit mehr als einem verliehenen Film</t>
   </si>
   <si>
-    <t xml:space="preserve">Zwei Filme sind verliehen</t>
+    <t xml:space="preserve">Mindestens Zwei Filme sind verliehen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Movie m1 = „Star Wars“
+Movie m2 = „23“
+Movie m3 = „Hackers“
+m1.istVerliehen = true
+M2.istVerliehen = true
+m3.istVerliehen = false</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Star Wars and 23 are borrowed now, so the order will be:
+23
+Star Wars
+Hackers</t>
   </si>
   <si>
     <r>
@@ -112,9 +170,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Movie m1 = „StarWars“
-m1.istVerliehen = true
-Movie m2 = „Mamma Mia“
+      <t xml:space="preserve">Order now is:
 </t>
     </r>
     <r>
@@ -123,8 +179,95 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">M2.istVerliehen = true</t>
+      <t xml:space="preserve">23
+Star Wars
+Hackers</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Borrow on not borrowed Movie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borrow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ein Film ist nicht verlienen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borrow movie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W1.2: Movie Details: Borrow button gets replaced with return button. Timer starts to indicate by when movie is to be returned</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Movie is borrowed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Movie m1 = „Star Wars“
+m1.istVerliehen = true</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W1.2: Movie Details shows the details of Movie m1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select Borrow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The movie m1 will now be borrowed. This means that the Button Borrow will change to the Button Return and the return Date will be set as 30 days from now</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m1.istVerliehen = true
+m1.returnDate = today + 30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Return on borrowed not overdue Movie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Return</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ein Film ist verliehen dessen rückgabe datum noch nicht überschritten wurde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Return Movie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W1.2: Movie Details: Return button gets replaced with borrow button. Timer gets removed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Movie is not borrowed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Movie m1 = „Star Wars“
+m1.istVerliehen = true
+M1.returnDate = today + 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select Return</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Movie m1 is not borrowed anymore, thus the return button gets replaced with the borrow button.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m1.istVerliehen = false</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Return on Borrowed overdue Movie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ein Film ist verliehen dessen rückgabe datum überschritten wurde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W1.2: Movie Details: Return button gets replaced with borrow button. Timer gets removed. Information box showes up informing user they have a fine on their account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Movie m1 = „Star Wars“
+m1.istVerliehen = true
+M1.returnDate = today - 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m1.istVerliehen = false
+AccountBalance -= 5€</t>
   </si>
 </sst>
 </file>
@@ -225,7 +368,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -250,12 +393,16 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -275,18 +422,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="K14" activeCellId="0" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="7.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="7.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="24.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="23.01"/>
@@ -296,6 +443,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="56.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="26.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -361,24 +509,37 @@
       <c r="I2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="1"/>
+      <c r="J2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="71.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="6"/>
+      <c r="K3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="6"/>
     </row>
     <row r="4" s="7" customFormat="true" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="n">
@@ -391,36 +552,58 @@
         <v>12</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="71.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="I5" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="J5" s="6"/>
+      <c r="K5" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="6" s="7" customFormat="true" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>11</v>
@@ -429,35 +612,237 @@
         <v>12</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="71.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="J7" s="6"/>
+      <c r="K7" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" s="7" customFormat="true" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="71.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9" s="6"/>
+      <c r="K9" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" s="7" customFormat="true" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="71.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J11" s="6"/>
+      <c r="K11" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" s="7" customFormat="true" ht="79.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="71.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J13" s="6"/>
+      <c r="K13" s="1" t="s">
+        <v>62</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="30">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="D2:D3"/>
@@ -473,6 +858,21 @@
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="J6:J7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="J12:J13"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
